--- a/项目规划表/沉默版本规划表.xlsx
+++ b/项目规划表/沉默版本规划表.xlsx
@@ -4,16 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="总规划" sheetId="1" r:id="rId1"/>
-    <sheet name="数值统计" sheetId="2" r:id="rId2"/>
-    <sheet name="每日工作安排" sheetId="3" r:id="rId3"/>
-    <sheet name="个人标识记录" sheetId="4" r:id="rId4"/>
-    <sheet name="U变量记录" sheetId="5" r:id="rId5"/>
-    <sheet name="顶部图标规划" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
+    <sheet name="个人标识记录" sheetId="4" r:id="rId2"/>
+    <sheet name="U变量记录" sheetId="5" r:id="rId3"/>
+    <sheet name="顶部图标规划" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
   <si>
     <t>传三沉默版本规划</t>
   </si>
@@ -71,9 +68,6 @@
     <t>勋章锻造</t>
   </si>
   <si>
-    <t>待完成</t>
-  </si>
-  <si>
     <t>转生系统</t>
   </si>
   <si>
@@ -95,64 +89,7 @@
     <t>第二大陆传送</t>
   </si>
   <si>
-    <t>属性总览</t>
-  </si>
-  <si>
-    <t>人物初始</t>
-  </si>
-  <si>
-    <t>特权</t>
-  </si>
-  <si>
-    <t>切割</t>
-  </si>
-  <si>
-    <t>1.完成勋章锻造的属性调整</t>
-  </si>
-  <si>
-    <t>2.完成盾牌锻造功能实现+属性调整</t>
-  </si>
-  <si>
-    <t>3.完成称号晋升界面功能属性</t>
-  </si>
-  <si>
-    <t>4.转生功能表格内材料ID增加可控</t>
-  </si>
-  <si>
-    <t>5.勋章素材打包</t>
-  </si>
-  <si>
-    <t>6.增加勋章盾牌升级消耗通用材料</t>
-  </si>
-  <si>
-    <t>1.免费赞助</t>
-  </si>
-  <si>
-    <t>2.一大陆地图刷怪</t>
-  </si>
-  <si>
-    <t>3.一大陆怪物掉落</t>
-  </si>
-  <si>
-    <t>4.货币兑换</t>
-  </si>
-  <si>
-    <t>5.冠名</t>
-  </si>
-  <si>
-    <t>潜力加点功能</t>
-  </si>
-  <si>
-    <t>二大陆传送</t>
-  </si>
-  <si>
-    <t>二大陆地图</t>
-  </si>
-  <si>
-    <t>二大陆NPC布局</t>
-  </si>
-  <si>
-    <t>二大陆剧情设计</t>
+    <t>二大陆</t>
   </si>
   <si>
     <t>001</t>
@@ -258,7 +195,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,13 +206,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -745,137 +675,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -883,9 +813,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
@@ -1416,10 +1343,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1500,14 +1427,14 @@
       <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>12</v>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1"/>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>6</v>
@@ -1516,42 +1443,59 @@
     <row r="10" spans="1:3">
       <c r="A10" s="1"/>
       <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1"/>
       <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>14</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="1"/>
       <c r="B12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>15</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="1"/>
       <c r="B13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>16</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="1"/>
       <c r="B14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>17</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="1"/>
       <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1568,42 +1512,44 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="2:4">
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
         <v>23</v>
       </c>
-      <c r="B3">
-        <v>100</v>
-      </c>
-      <c r="C3">
-        <v>8000</v>
-      </c>
-      <c r="D3">
-        <v>888</v>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1613,229 +1559,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E16"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
-  <cols>
-    <col min="2" max="2" width="32.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1">
-        <v>2.14</v>
-      </c>
-      <c r="B1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1"/>
-      <c r="B2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1"/>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1"/>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1"/>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1"/>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>2.15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1"/>
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1"/>
-      <c r="B9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1"/>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1"/>
-      <c r="B11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
-        <v>2.16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13">
-        <v>2.17</v>
-      </c>
-      <c r="B13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3">
-      <c r="B14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3">
-      <c r="B15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3">
-      <c r="B16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:A6"/>
-    <mergeCell ref="A7:A11"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B5"/>
@@ -1851,42 +1574,42 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1895,7 +1618,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C12"/>
@@ -1914,7 +1637,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1922,7 +1645,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1930,7 +1653,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1938,7 +1661,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1946,7 +1669,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1954,7 +1677,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1962,7 +1685,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1970,7 +1693,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1978,7 +1701,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1986,7 +1709,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1994,7 +1717,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2002,30 +1725,14 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S31" sqref="S31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/项目规划表/沉默版本规划表.xlsx
+++ b/项目规划表/沉默版本规划表.xlsx
@@ -4,13 +4,15 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="总规划" sheetId="1" r:id="rId1"/>
     <sheet name="个人标识记录" sheetId="4" r:id="rId2"/>
     <sheet name="U变量记录" sheetId="5" r:id="rId3"/>
     <sheet name="顶部图标规划" sheetId="6" r:id="rId4"/>
+    <sheet name="二大陆详细规划" sheetId="7" r:id="rId5"/>
+    <sheet name="整体装备思路" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="63">
   <si>
     <t>传三沉默版本规划</t>
   </si>
@@ -44,6 +46,9 @@
     <t>完成进度</t>
   </si>
   <si>
+    <t>备注</t>
+  </si>
+  <si>
     <t>一大陆</t>
   </si>
   <si>
@@ -92,6 +97,15 @@
     <t>二大陆</t>
   </si>
   <si>
+    <t>技能强化</t>
+  </si>
+  <si>
+    <t>剧情：初闻追梦</t>
+  </si>
+  <si>
+    <t>剧情：魂飞魄散</t>
+  </si>
+  <si>
     <t>001</t>
   </si>
   <si>
@@ -183,6 +197,30 @@
   </si>
   <si>
     <t>(这是一个扭蛋机抽奖功能)</t>
+  </si>
+  <si>
+    <t>5张野外地图内分别有1个剧情任务，完成任务后奖励1个道具 集齐5个道具+1个精英怪物掉落的道具后，可以完成初闻追梦剧情，赠送2大陆终极追梦红装</t>
+  </si>
+  <si>
+    <t>此剧情打算设计的稍微简单点，具体如何形式完成还没想好，但是准备投点%鞭尸概率属性 5%-10%左右</t>
+  </si>
+  <si>
+    <t>1大陆 只有制式(绿装)装备，只有最基础的攻防属性</t>
+  </si>
+  <si>
+    <t>2大陆开始 有绿装、蓝装（蓝装附带一条元素属性，二大陆以打怪切割为主）、橙装（两条元素属性）、红装（红装3条元素属性）</t>
+  </si>
+  <si>
+    <t>基础属性分配</t>
+  </si>
+  <si>
+    <t>例如：三大陆最强绿装攻防 可以=2大陆红装，但是无元素属性，优先级：红&gt;橙&gt;蓝&gt;绿（不分大陆）绿色优先级0开始、蓝色100 橙色200 红色300开始</t>
+  </si>
+  <si>
+    <t>红装BOSS掉落最高&gt;精英怪（概率低，基本不掉除非运气爆棚）&gt;普通怪（极低概率，基本不掉）目的：要想追梦红装，必须蹲BOSS</t>
+  </si>
+  <si>
+    <t>后面大陆可以做个BOSS之家玩家花钱 可进入 个人类似爬塔</t>
   </si>
 </sst>
 </file>
@@ -1093,6 +1131,137 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>8115300</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1143000" y="333375"/>
+          <a:ext cx="8115300" cy="4772025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>8162925</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9305925" y="342900"/>
+          <a:ext cx="4676775" cy="4552950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14049375" y="314325"/>
+          <a:ext cx="7334250" cy="5495925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="WPS">
   <a:themeElements>
@@ -1343,10 +1512,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1364,7 +1533,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1374,129 +1543,155 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1"/>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1"/>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1"/>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1"/>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1"/>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1"/>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1"/>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1"/>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1522,34 +1717,34 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1574,42 +1769,42 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1637,7 +1832,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1645,7 +1840,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1653,7 +1848,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1661,7 +1856,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1669,7 +1864,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1677,7 +1872,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1685,7 +1880,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1693,7 +1888,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1701,7 +1896,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1709,7 +1904,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1717,7 +1912,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1725,10 +1920,99 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="136.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" ht="128" customHeight="1"/>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="120.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/项目规划表/沉默版本规划表.xlsx
+++ b/项目规划表/沉默版本规划表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="5"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="总规划" sheetId="1" r:id="rId1"/>
@@ -202,7 +202,7 @@
     <t>5张野外地图内分别有1个剧情任务，完成任务后奖励1个道具 集齐5个道具+1个精英怪物掉落的道具后，可以完成初闻追梦剧情，赠送2大陆终极追梦红装</t>
   </si>
   <si>
-    <t>此剧情打算设计的稍微简单点，具体如何形式完成还没想好，但是准备投点%鞭尸概率属性 5%-10%左右</t>
+    <t>此剧情打算设计的稍微简单点，具体如何形式完成还没想好（预想是在2大陆任意地图击杀怪物满2000），但是准备投点%鞭尸概率属性 5%-10%左右</t>
   </si>
   <si>
     <t>1大陆 只有制式(绿装)装备，只有最基础的攻防属性</t>
@@ -1937,8 +1937,8 @@
   <sheetPr/>
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1976,7 +1976,7 @@
   <sheetPr/>
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>

--- a/项目规划表/沉默版本规划表.xlsx
+++ b/项目规划表/沉默版本规划表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="4"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="总规划" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="88">
   <si>
     <t>传三沉默版本规划</t>
   </si>
@@ -128,6 +128,81 @@
   </si>
   <si>
     <t>至尊赞助</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>装备回收</t>
+  </si>
+  <si>
+    <t>006</t>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>012</t>
+  </si>
+  <si>
+    <t>013</t>
+  </si>
+  <si>
+    <t>014</t>
+  </si>
+  <si>
+    <t>015</t>
+  </si>
+  <si>
+    <t>016</t>
+  </si>
+  <si>
+    <t>017</t>
+  </si>
+  <si>
+    <t>018</t>
+  </si>
+  <si>
+    <t>019</t>
+  </si>
+  <si>
+    <t>020</t>
+  </si>
+  <si>
+    <t>021</t>
+  </si>
+  <si>
+    <t>022</t>
+  </si>
+  <si>
+    <t>023</t>
+  </si>
+  <si>
+    <t>024</t>
+  </si>
+  <si>
+    <t>025</t>
+  </si>
+  <si>
+    <t>026</t>
+  </si>
+  <si>
+    <t>027</t>
+  </si>
+  <si>
+    <t>自动回收</t>
   </si>
   <si>
     <t>U1</t>
@@ -1707,13 +1782,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
@@ -1745,6 +1820,190 @@
       </c>
       <c r="B4" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1769,42 +2028,42 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1832,7 +2091,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1840,7 +2099,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1848,7 +2107,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1856,7 +2115,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1864,7 +2123,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1872,7 +2131,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1880,7 +2139,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1888,7 +2147,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1896,7 +2155,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1904,7 +2163,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1912,7 +2171,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1920,10 +2179,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1937,7 +2196,7 @@
   <sheetPr/>
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -1952,7 +2211,7 @@
         <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" ht="128" customHeight="1"/>
@@ -1961,7 +2220,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1987,32 +2246,32 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/项目规划表/沉默版本规划表.xlsx
+++ b/项目规划表/沉默版本规划表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="总规划" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="顶部图标规划" sheetId="6" r:id="rId4"/>
     <sheet name="二大陆详细规划" sheetId="7" r:id="rId5"/>
     <sheet name="整体装备思路" sheetId="8" r:id="rId6"/>
+    <sheet name="任务流程" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="108">
   <si>
     <t>传三沉默版本规划</t>
   </si>
@@ -296,6 +297,66 @@
   </si>
   <si>
     <t>后面大陆可以做个BOSS之家玩家花钱 可进入 个人类似爬塔</t>
+  </si>
+  <si>
+    <t>任务流程</t>
+  </si>
+  <si>
+    <t>是否强制引导</t>
+  </si>
+  <si>
+    <t>奖励</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.进入游戏后点击开始游戏 </t>
+  </si>
+  <si>
+    <t>2.前往天然洞穴击杀15只怪</t>
+  </si>
+  <si>
+    <t>20w绑定元宝</t>
+  </si>
+  <si>
+    <t>3.引导回收-打开背包-打开回收-一键全选-点击回收</t>
+  </si>
+  <si>
+    <t>4.勋章提升至5级</t>
+  </si>
+  <si>
+    <t>5.前往半兽洞穴击杀20只怪</t>
+  </si>
+  <si>
+    <t>6.不败之盾提升至5级</t>
+  </si>
+  <si>
+    <t>7.前往蚂蚁洞穴击杀20只怪</t>
+  </si>
+  <si>
+    <t>500绑定灵符</t>
+  </si>
+  <si>
+    <t>8.永恒玫瑰提升1次</t>
+  </si>
+  <si>
+    <t>9.前往祖玛神殿击杀30只怪</t>
+  </si>
+  <si>
+    <t>武器:墨龙屠龙*1、10万绑定元宝、称号证明*10</t>
+  </si>
+  <si>
+    <t>10.称号提升1次</t>
+  </si>
+  <si>
+    <t>11.沃玛神殿击杀30只怪</t>
+  </si>
+  <si>
+    <t>20w绑定元宝、转生凭证*200</t>
+  </si>
+  <si>
+    <t>12.引导转生5次</t>
+  </si>
+  <si>
+    <t>13.前往2大陆</t>
   </si>
 </sst>
 </file>
@@ -1784,7 +1845,7 @@
   <sheetPr/>
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5:B26"/>
     </sheetView>
   </sheetViews>
@@ -2278,4 +2339,156 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="48.75" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="16.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/项目规划表/沉默版本规划表.xlsx
+++ b/项目规划表/沉默版本规划表.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="109">
   <si>
     <t>传三沉默版本规划</t>
   </si>
@@ -311,52 +311,55 @@
     <t xml:space="preserve">1.进入游戏后点击开始游戏 </t>
   </si>
   <si>
-    <t>2.前往天然洞穴击杀15只怪</t>
+    <t>2.引导点击顶部按钮-领取免费赞助</t>
+  </si>
+  <si>
+    <t>3.前往天然洞穴击杀15只怪</t>
   </si>
   <si>
     <t>20w绑定元宝</t>
   </si>
   <si>
-    <t>3.引导回收-打开背包-打开回收-一键全选-点击回收</t>
-  </si>
-  <si>
-    <t>4.勋章提升至5级</t>
-  </si>
-  <si>
-    <t>5.前往半兽洞穴击杀20只怪</t>
-  </si>
-  <si>
-    <t>6.不败之盾提升至5级</t>
-  </si>
-  <si>
-    <t>7.前往蚂蚁洞穴击杀20只怪</t>
+    <t>4.引导回收-打开背包-打开回收-一键全选-点击回收</t>
+  </si>
+  <si>
+    <t>5.勋章提升至5级</t>
+  </si>
+  <si>
+    <t>6.前往半兽洞穴击杀20只怪</t>
+  </si>
+  <si>
+    <t>7.不败之盾提升至5级</t>
+  </si>
+  <si>
+    <t>8.前往蚂蚁洞穴击杀20只怪</t>
   </si>
   <si>
     <t>500绑定灵符</t>
   </si>
   <si>
-    <t>8.永恒玫瑰提升1次</t>
-  </si>
-  <si>
-    <t>9.前往祖玛神殿击杀30只怪</t>
+    <t>9.永恒玫瑰提升1次</t>
+  </si>
+  <si>
+    <t>10.前往祖玛神殿击杀30只怪</t>
   </si>
   <si>
     <t>武器:墨龙屠龙*1、10万绑定元宝、称号证明*10</t>
   </si>
   <si>
-    <t>10.称号提升1次</t>
-  </si>
-  <si>
-    <t>11.沃玛神殿击杀30只怪</t>
+    <t>11.称号提升1次</t>
+  </si>
+  <si>
+    <t>12.沃玛神殿击杀30只怪</t>
   </si>
   <si>
     <t>20w绑定元宝、转生凭证*200</t>
   </si>
   <si>
-    <t>12.引导转生5次</t>
-  </si>
-  <si>
-    <t>13.前往2大陆</t>
+    <t>13.引导转生5次</t>
+  </si>
+  <si>
+    <t>14.前往2大陆</t>
   </si>
 </sst>
 </file>
@@ -2344,10 +2347,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -2376,23 +2379,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>92</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>94</v>
       </c>
       <c r="B4">
         <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2403,80 +2406,80 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>96</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>97</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="C7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>98</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>100</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="C9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>101</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>103</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="C11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>104</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
-      <c r="C12" t="s">
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>106</v>
       </c>
       <c r="B13">
         <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2484,6 +2487,14 @@
         <v>107</v>
       </c>
       <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15">
         <v>1</v>
       </c>
     </row>

--- a/项目规划表/沉默版本规划表.xlsx
+++ b/项目规划表/沉默版本规划表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="6"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="总规划" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="113">
   <si>
     <t>传三沉默版本规划</t>
   </si>
@@ -234,6 +234,18 @@
   </si>
   <si>
     <t>天赋点总数</t>
+  </si>
+  <si>
+    <t>U6</t>
+  </si>
+  <si>
+    <t>任务ID</t>
+  </si>
+  <si>
+    <t>U7</t>
+  </si>
+  <si>
+    <t>任务计数</t>
   </si>
   <si>
     <t>展开收缩按钮</t>
@@ -2079,13 +2091,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="1"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
   </cols>
@@ -2128,6 +2140,22 @@
       </c>
       <c r="B5" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2155,7 +2183,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2163,7 +2191,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2171,7 +2199,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2179,7 +2207,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2187,7 +2215,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2195,7 +2223,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2203,7 +2231,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2211,7 +2239,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2219,7 +2247,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2227,7 +2255,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2235,7 +2263,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2243,10 +2271,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2275,7 +2303,7 @@
         <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" ht="128" customHeight="1"/>
@@ -2284,7 +2312,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2310,32 +2338,32 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2349,7 +2377,7 @@
   <sheetPr/>
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -2362,18 +2390,18 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2381,7 +2409,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2389,18 +2417,18 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -2408,7 +2436,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -2416,18 +2444,18 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -2435,18 +2463,18 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -2454,18 +2482,18 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -2473,18 +2501,18 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -2492,7 +2520,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B15">
         <v>1</v>

--- a/项目规划表/沉默版本规划表.xlsx
+++ b/项目规划表/沉默版本规划表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="总规划" sheetId="1" r:id="rId1"/>
@@ -335,13 +335,13 @@
     <t>4.引导回收-打开背包-打开回收-一键全选-点击回收</t>
   </si>
   <si>
-    <t>5.勋章提升至5级</t>
+    <t>5.勋章提升至1级</t>
   </si>
   <si>
     <t>6.前往半兽洞穴击杀20只怪</t>
   </si>
   <si>
-    <t>7.不败之盾提升至5级</t>
+    <t>7.不败之盾提升至1级</t>
   </si>
   <si>
     <t>8.前往蚂蚁洞穴击杀20只怪</t>
@@ -2093,7 +2093,7 @@
   <sheetPr/>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -2377,8 +2377,8 @@
   <sheetPr/>
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>

--- a/项目规划表/沉默版本规划表.xlsx
+++ b/项目规划表/沉默版本规划表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="6"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="总规划" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="117">
   <si>
     <t>传三沉默版本规划</t>
   </si>
@@ -206,6 +206,12 @@
     <t>自动回收</t>
   </si>
   <si>
+    <t>028</t>
+  </si>
+  <si>
+    <t>追梦剧情标识</t>
+  </si>
+  <si>
     <t>U1</t>
   </si>
   <si>
@@ -246,6 +252,12 @@
   </si>
   <si>
     <t>任务计数</t>
+  </si>
+  <si>
+    <t>U8</t>
+  </si>
+  <si>
+    <t>二大陆魂飞魄散剧情计数</t>
   </si>
   <si>
     <t>展开收缩按钮</t>
@@ -1858,10 +1870,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B26"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -2080,6 +2092,14 @@
       </c>
       <c r="B27" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2091,71 +2111,79 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="1"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2183,7 +2211,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2191,7 +2219,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2199,7 +2227,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2207,7 +2235,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2215,7 +2243,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2223,7 +2251,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2231,7 +2259,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2239,7 +2267,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2247,7 +2275,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2255,7 +2283,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2263,7 +2291,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2271,10 +2299,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C12" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2303,7 +2331,7 @@
         <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" ht="128" customHeight="1"/>
@@ -2312,7 +2340,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2338,32 +2366,32 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2377,7 +2405,7 @@
   <sheetPr/>
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
@@ -2390,18 +2418,18 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2409,7 +2437,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2417,18 +2445,18 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -2436,7 +2464,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -2444,18 +2472,18 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -2463,18 +2491,18 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -2482,18 +2510,18 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -2501,18 +2529,18 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -2520,7 +2548,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B15">
         <v>1</v>

--- a/项目规划表/沉默版本规划表.xlsx
+++ b/项目规划表/沉默版本规划表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="总规划" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="二大陆详细规划" sheetId="7" r:id="rId5"/>
     <sheet name="整体装备思路" sheetId="8" r:id="rId6"/>
     <sheet name="任务流程" sheetId="9" r:id="rId7"/>
+    <sheet name="N变量记录" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="120">
   <si>
     <t>传三沉默版本规划</t>
   </si>
@@ -338,7 +339,7 @@
     <t>2.引导点击顶部按钮-领取免费赞助</t>
   </si>
   <si>
-    <t>3.前往天然洞穴击杀15只怪</t>
+    <t>3.前往天然洞穴击杀10只怪</t>
   </si>
   <si>
     <t>20w绑定元宝</t>
@@ -350,13 +351,13 @@
     <t>5.勋章提升至1级</t>
   </si>
   <si>
-    <t>6.前往半兽洞穴击杀20只怪</t>
+    <t>6.前往半兽洞穴击杀15只怪</t>
   </si>
   <si>
     <t>7.不败之盾提升至1级</t>
   </si>
   <si>
-    <t>8.前往蚂蚁洞穴击杀20只怪</t>
+    <t>8.前往蚂蚁洞穴击杀15只怪</t>
   </si>
   <si>
     <t>500绑定灵符</t>
@@ -365,7 +366,7 @@
     <t>9.永恒玫瑰提升1次</t>
   </si>
   <si>
-    <t>10.前往祖玛神殿击杀30只怪</t>
+    <t>10.前往祖玛神殿击杀20只怪</t>
   </si>
   <si>
     <t>武器:墨龙屠龙*1、10万绑定元宝、称号证明*10</t>
@@ -384,6 +385,15 @@
   </si>
   <si>
     <t>14.前往2大陆</t>
+  </si>
+  <si>
+    <t>N10</t>
+  </si>
+  <si>
+    <t>保底掉率</t>
+  </si>
+  <si>
+    <t>N11</t>
   </si>
 </sst>
 </file>
@@ -2113,7 +2123,7 @@
   <sheetPr/>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -2405,8 +2415,8 @@
   <sheetPr/>
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -2558,4 +2568,37 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/项目规划表/沉默版本规划表.xlsx
+++ b/项目规划表/沉默版本规划表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="6"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="总规划" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="122">
   <si>
     <t>传三沉默版本规划</t>
   </si>
@@ -259,6 +259,12 @@
   </si>
   <si>
     <t>二大陆魂飞魄散剧情计数</t>
+  </si>
+  <si>
+    <t>U9</t>
+  </si>
+  <si>
+    <t>三大陆魂飞魄散剧情计数</t>
   </si>
   <si>
     <t>展开收缩按钮</t>
@@ -2121,13 +2127,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
   </cols>
@@ -2194,6 +2200,14 @@
       </c>
       <c r="B8" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2221,7 +2235,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2229,7 +2243,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2237,7 +2251,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2245,7 +2259,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2253,7 +2267,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2261,7 +2275,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2269,7 +2283,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2277,7 +2291,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2285,7 +2299,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2293,7 +2307,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2301,7 +2315,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2309,10 +2323,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C12" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2341,7 +2355,7 @@
         <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" ht="128" customHeight="1"/>
@@ -2350,7 +2364,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2376,32 +2390,32 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2415,7 +2429,7 @@
   <sheetPr/>
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -2428,18 +2442,18 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2447,7 +2461,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2455,18 +2469,18 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -2474,7 +2488,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -2482,18 +2496,18 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -2501,18 +2515,18 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -2520,18 +2534,18 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -2539,18 +2553,18 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -2558,7 +2572,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -2583,18 +2597,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
